--- a/eurosys_outputs/sec6.1.xlsx
+++ b/eurosys_outputs/sec6.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17655"/>
+    <workbookView windowWidth="25605" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,16 +696,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,9 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1050,6 +1044,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.5"/>
     <col min="3" max="5" width="12.625"/>
     <col min="6" max="6" width="10.375"/>
@@ -1061,179 +1056,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>128</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>64</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>32</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>122.536624</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>69.6363</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>40.39</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>25.9029</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>18.3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>8.495</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>7.522</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>25.57</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>13.06</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>7.19</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>3.403</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>1.121</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>0.1746</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>0.1416</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5.545</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2.813</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1.52</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1.368</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>0.458</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>0.0599</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>0.0404</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>9.759</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>5.117</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>3.93</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1.202</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>0.404</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>0.0614</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.04697</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>467700556</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>642129073</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>544649067</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>489956694.1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>323346617</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>180935393.1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>102433440</v>
       </c>
     </row>
@@ -1250,182 +1245,182 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>128</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>64</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>32</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>16</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>146.2385</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>80.5968</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>47.3046925</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>30.5222</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>19.2642</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>9.65178</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>10.2134</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>31.15</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>16.03</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>8.561</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>4.185</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>1.086</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>0.2112</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>0.121</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>8.274</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>4.383</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2.393</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>1.266</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>0.3486</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>0.7766</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>0.4143</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>20.75</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>8.656</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>3.589</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>2.653</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>0.6365</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>0.0846</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>0.05183</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:8">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>600684889</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>581750862.5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>520714624.6</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>466818851</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>418227183</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>182196695.2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>96938626</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" ht="15" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" ht="15" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -1435,49 +1430,49 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" ht="15" spans="1:8">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>512</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>64</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>8</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" ht="15" spans="1:8">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>16.6477</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>10.816</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>2.78</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>1.68</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" ht="15" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -1487,49 +1482,49 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" ht="15" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>512</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>64</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>8</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" ht="15" spans="1:8">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>6.33</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>5.1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2.904</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>1.462</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
